--- a/tests/test_import/translate_files_for_import_tests/study_label_merge_file.xlsx
+++ b/tests/test_import/translate_files_for_import_tests/study_label_merge_file.xlsx
@@ -40,9 +40,6 @@
     <t>Malignancy</t>
   </si>
   <si>
-    <t>famhhist_cardiomyopathy</t>
-  </si>
-  <si>
     <t>famhist_encephalopathy</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>his_family</t>
+  </si>
+  <si>
+    <t>famhist_cardiomyopathy</t>
   </si>
   <si>
     <t>No</t>
@@ -427,7 +427,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E23"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,111 +440,111 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -552,104 +552,104 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
